--- a/CN_Provinces/市领导数据/疫情-20市委书记-331ct-V1.xlsx
+++ b/CN_Provinces/市领导数据/疫情-20市委书记-331ct-V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qitianhu/Documents/Research/Explore/COVID-19_sosc/CN_Provinces/市领导数据/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027E1DB6-2E45-6A43-95C3-411B7409DE5C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFF9CE7-76CF-1047-B302-2567E6578026}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2300" yWindow="21000" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3251,8 +3251,8 @@
   <dimension ref="A1:L355"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A331" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J355" sqref="J355"/>
+      <pane ySplit="1" topLeftCell="A305" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L321" sqref="L321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13524,6 +13524,9 @@
         <v>887</v>
       </c>
       <c r="K319" s="2"/>
+      <c r="L319" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A320">
@@ -13589,6 +13592,9 @@
         <v>887</v>
       </c>
       <c r="K321" s="2"/>
+      <c r="L321" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A322">
@@ -13654,6 +13660,9 @@
         <v>887</v>
       </c>
       <c r="K323" s="2"/>
+      <c r="L323" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A324">
@@ -13719,6 +13728,9 @@
         <v>887</v>
       </c>
       <c r="K325" s="2"/>
+      <c r="L325" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A326">
@@ -13784,6 +13796,9 @@
         <v>887</v>
       </c>
       <c r="K327" s="2"/>
+      <c r="L327" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A328">
@@ -13849,6 +13864,9 @@
         <v>887</v>
       </c>
       <c r="K329" s="2"/>
+      <c r="L329" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A330">
@@ -13914,6 +13932,9 @@
         <v>887</v>
       </c>
       <c r="K331" s="2"/>
+      <c r="L331" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A332">
@@ -13979,6 +14000,9 @@
         <v>887</v>
       </c>
       <c r="K333" s="2"/>
+      <c r="L333" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A334">
@@ -14041,6 +14065,9 @@
         <v>887</v>
       </c>
       <c r="K335" s="2"/>
+      <c r="L335" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A336">
@@ -14103,6 +14130,9 @@
         <v>887</v>
       </c>
       <c r="K337" s="2"/>
+      <c r="L337" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A338">
@@ -14165,6 +14195,9 @@
         <v>887</v>
       </c>
       <c r="K339" s="2"/>
+      <c r="L339" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A340">
@@ -14227,6 +14260,9 @@
         <v>887</v>
       </c>
       <c r="K341" s="2"/>
+      <c r="L341" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A342">
@@ -14289,6 +14325,9 @@
         <v>887</v>
       </c>
       <c r="K343" s="2"/>
+      <c r="L343" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A344">
@@ -14351,6 +14390,9 @@
         <v>887</v>
       </c>
       <c r="K345" s="2"/>
+      <c r="L345" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A346">
@@ -14413,6 +14455,9 @@
         <v>930</v>
       </c>
       <c r="K347" s="2"/>
+      <c r="L347" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A348">
@@ -14475,6 +14520,9 @@
         <v>887</v>
       </c>
       <c r="K349" s="2"/>
+      <c r="L349" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A350">
@@ -14537,6 +14585,9 @@
         <v>887</v>
       </c>
       <c r="K351" s="2"/>
+      <c r="L351" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A352">
@@ -14599,6 +14650,9 @@
         <v>895</v>
       </c>
       <c r="K353" s="2"/>
+      <c r="L353" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A354">
@@ -14659,6 +14713,9 @@
       </c>
       <c r="J355" t="s">
         <v>887</v>
+      </c>
+      <c r="L355" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
